--- a/Batch Record Template.xlsx
+++ b/Batch Record Template.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khernandez\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Documents\GitHub\Batch-Record-Puller\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FDBF3A-0A93-4ED5-ABAA-69281A9B3A3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="19215" windowHeight="11790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1" iterateCount="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Main Media</t>
   </si>
@@ -132,12 +133,15 @@
   </si>
   <si>
     <t>AMS Initial</t>
+  </si>
+  <si>
+    <t>Media batch Records</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -448,207 +452,272 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
         <v>35</v>
       </c>
     </row>
